--- a/biology/Botanique/Peucédan_de_Schott/Peucédan_de_Schott.xlsx
+++ b/biology/Botanique/Peucédan_de_Schott/Peucédan_de_Schott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peuc%C3%A9dan_de_Schott</t>
+          <t>Peucédan_de_Schott</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Peucédan de Schott[2],[3] (Dichoropetalum schottii)  est une plante vivace de la famille des Apiacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Peucédan de Schott, (Dichoropetalum schottii)  est une plante vivace de la famille des Apiacées.
 Nom actuel : Dichoropetalum schottii (Besser ex DC.) Pimenov &amp; Kljuykov.
 Basionyme : Peucedanum schottii (Besser ex DC.), 1830.
 Synonyme : Holandrea schottii (Besser ex DC.) Reduron, Charpin &amp; Pimenov, 1997.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peuc%C3%A9dan_de_Schott</t>
+          <t>Peucédan_de_Schott</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peuc%C3%A9dan_de_Schott</t>
+          <t>Peucédan_de_Schott</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,9 +554,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace de 20 à 50 cm et à fleurs blanches[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace de 20 à 50 cm et à fleurs blanches.
 </t>
         </is>
       </c>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Peuc%C3%A9dan_de_Schott</t>
+          <t>Peucédan_de_Schott</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,9 +587,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante sauvage poussant dans les sols rocheux, répartie en Languedoc-Roussillon et dans le nord de l'Italie[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante sauvage poussant dans les sols rocheux, répartie en Languedoc-Roussillon et dans le nord de l'Italie,.
 </t>
         </is>
       </c>
